--- a/docs/images/Rubrics.xlsx
+++ b/docs/images/Rubrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/braught/courses/Fall18/COMP491/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/braught/courses/Fall21/COMP491/website/docs/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F758F-DFDF-FA4D-81C3-CF10F3A25767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890ACCB6-C1DD-0D43-9BFB-5D496FACAB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="-19160" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="-19260" windowWidth="26820" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poster" sheetId="21" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="204">
   <si>
     <t>Score</t>
   </si>
@@ -2226,6 +2226,30 @@
   </si>
   <si>
     <t>Presentation did not adequately contextualize the code within the application, the explanation of the code, challenges or solution was unclear and/or questions were not answered effectively.</t>
+  </si>
+  <si>
+    <t>Poster Draft (Group)</t>
+  </si>
+  <si>
+    <t>Poster draft submitted is very incomplete and/or demonstrates little effort.</t>
+  </si>
+  <si>
+    <t>Poster draft is largely complete and  clearly demonstrates an effort to produce a quality draft.</t>
+  </si>
+  <si>
+    <t>No poster abstract was submitted for peer review.</t>
+  </si>
+  <si>
+    <t>No poster draft was submitted for peer review.</t>
+  </si>
+  <si>
+    <t>Poster abstract submitted is very incomplete, demonstrates little effort or clearly does not address the requirments for the poster session.</t>
+  </si>
+  <si>
+    <t>Poster abstract is largely complete, clearly demonstrats an effort to address the requirements for the poster session.</t>
+  </si>
+  <si>
+    <t>Abstract Draft  (Group)</t>
   </si>
 </sst>
 </file>
@@ -3118,110 +3142,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F11"/>
+  <dimension ref="C2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="6" width="30" customWidth="1"/>
+    <col min="4" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="17" thickBot="1"/>
-    <row r="3" spans="3:6" ht="17" thickBot="1">
+    <row r="2" spans="3:8" ht="17" thickBot="1"/>
+    <row r="3" spans="3:8" ht="17" thickBot="1">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="68">
+    <row r="4" spans="3:8" ht="68">
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="170">
+    <row r="5" spans="3:8" ht="117" customHeight="1">
       <c r="C5" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="136">
+    <row r="6" spans="3:8" ht="102">
       <c r="C6" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="103" thickBot="1">
+    <row r="7" spans="3:8" ht="69" thickBot="1">
       <c r="C7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="17" thickBot="1">
-      <c r="C8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="102">
-      <c r="D10" s="11" t="s">
+    <row r="9" spans="3:8" ht="119">
+      <c r="E9" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="D11" s="12"/>
+    <row r="10" spans="3:8">
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3366,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
